--- a/output/StructureDefinition-oncology-kenya-registry-report.xlsx
+++ b/output/StructureDefinition-oncology-kenya-registry-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T13:49:52+03:00</t>
+    <t>2025-06-30T18:02:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
